--- a/Yoga_2d_ex/evaluation2d.xlsx
+++ b/Yoga_2d_ex/evaluation2d.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="fcnn2d" sheetId="2" r:id="rId2"/>
+    <sheet name="fnn2d" sheetId="2" r:id="rId2"/>
     <sheet name="conv2d" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -624,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1011,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
